--- a/01_Fundamentals of Excel/Excel Fundamentals - To be shared with Student before class.xlsx
+++ b/01_Fundamentals of Excel/Excel Fundamentals - To be shared with Student before class.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallikarjun B Patil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIA\01_Excel\01_Fundamentals of Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D2EE7B-1452-46AA-BDD7-FA96D0779221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE4D269-AF80-47FA-8810-5B0AF22927A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="customer_shopping_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer_shopping_data" sheetId="1" r:id="rId1"/>
     <sheet name="Text Function" sheetId="3" r:id="rId2"/>
     <sheet name="Concat" sheetId="4" r:id="rId3"/>
     <sheet name="Format Printer" sheetId="5" r:id="rId4"/>
@@ -1427,8 +1427,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-14009]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="[$-10409]hh:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-10409]hh:mm:ss\ AM/PM;@"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -2052,8 +2052,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2105,17 +2105,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2133,66 +2123,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2508,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8402,9 +8332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE54B58-A34B-4C89-81A7-E820DF4179E3}">
   <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -13375,8 +13303,8 @@
       <c r="H201" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13386,11 +13314,21 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
-      <formula>"Pass"</formula>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>"Fail"</formula>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
@@ -13405,24 +13343,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF92D050"/>
-      </colorScale>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13441,9 +13369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082DF554-0F95-4F21-A6AC-361BC19E1148}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19301,9 +19227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41CDCD8-F76C-4F21-9FF4-1BB014052204}">
   <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19338,9 +19262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D10ADE-1DD4-4833-A064-15776B5C2F9C}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19529,9 +19451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3B0BA2-7CC2-4E88-B35A-B2C832E19510}">
   <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19591,9 +19511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B0FDF0-85DF-4EEC-A932-A94FD54F3120}">
   <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19658,9 +19576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC886FA-2573-4558-B0B3-0E0D06D1F931}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -19708,7 +19624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E868AB-5982-4C29-B3BC-DE3EF0194AD6}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19716,7 +19632,7 @@
     <col min="2" max="2" width="14.54296875" style="5" customWidth="1"/>
     <col min="3" max="3" width="7.453125" style="5" customWidth="1"/>
     <col min="4" max="4" width="25.453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="20.81640625" style="5"/>
   </cols>
   <sheetData>
@@ -19765,10 +19681,6 @@
       </c>
       <c r="B5" s="12">
         <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <f>VLOOKUP("Apple", A2:B6,2,TRUE)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -19788,16 +19700,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DADE921-2665-49CA-AA34-DD6BCD1CC6AF}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="10.453125" style="14"/>
     <col min="5" max="5" width="4.26953125" style="14" customWidth="1"/>
     <col min="6" max="6" width="35.1796875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="40" style="14" customWidth="1"/>
+    <col min="7" max="7" width="27.81640625" style="14" customWidth="1"/>
     <col min="8" max="16384" width="10.453125" style="14"/>
   </cols>
   <sheetData>
@@ -19887,9 +19797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46D899B-198F-435F-B78C-3313E0797E89}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D201"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
